--- a/mobile_numbers.xlsx
+++ b/mobile_numbers.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DCD2B5-08BE-4C1B-B3AC-488DCD29B5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1097,8 +1098,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1250,7 +1251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1282,9 +1283,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1316,6 +1335,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1491,14 +1528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
@@ -1509,7 +1546,7 @@
     <col min="7" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1535,7 +1572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>9216577270</v>
       </c>
@@ -1557,7 +1594,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>7760405844</v>
       </c>
@@ -1579,7 +1616,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>7002049720</v>
       </c>
@@ -1601,7 +1638,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>6001783527</v>
       </c>
@@ -1623,7 +1660,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>8764394854</v>
       </c>
@@ -1645,7 +1682,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>8721963997</v>
       </c>
@@ -1667,7 +1704,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7639213985</v>
       </c>
@@ -1689,7 +1726,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7846042335</v>
       </c>
@@ -1711,7 +1748,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9233734303</v>
       </c>
@@ -1733,7 +1770,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9700214559</v>
       </c>
@@ -1755,7 +1792,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8826089109</v>
       </c>
@@ -1777,7 +1814,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9641376497</v>
       </c>
@@ -1799,7 +1836,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>9443359182</v>
       </c>
@@ -1821,7 +1858,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>7558231820</v>
       </c>
@@ -1843,7 +1880,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>6374456156</v>
       </c>
@@ -1865,7 +1902,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>9720599743</v>
       </c>
@@ -1887,7 +1924,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>9038282435</v>
       </c>
@@ -1909,7 +1946,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>7589916641</v>
       </c>
@@ -1931,7 +1968,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>7098230709</v>
       </c>
@@ -1953,7 +1990,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>7871542089</v>
       </c>
@@ -1975,7 +2012,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>9828374165</v>
       </c>
@@ -1997,7 +2034,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>9828334509</v>
       </c>
@@ -2019,7 +2056,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>9789486775</v>
       </c>
@@ -2041,7 +2078,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>9090893941</v>
       </c>
@@ -2063,7 +2100,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>9175041468</v>
       </c>
@@ -2085,7 +2122,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>9907912716</v>
       </c>
@@ -2107,7 +2144,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>8794962291</v>
       </c>
@@ -2129,7 +2166,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>9038134699</v>
       </c>
@@ -2151,7 +2188,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>9907093809</v>
       </c>
@@ -2173,7 +2210,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>8100486214</v>
       </c>
@@ -2195,7 +2232,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>9667796722</v>
       </c>
@@ -2217,7 +2254,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>9530099245</v>
       </c>
@@ -2239,7 +2276,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>6372573534</v>
       </c>
@@ -2261,7 +2298,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>9344687900</v>
       </c>
@@ -2283,7 +2320,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>7418429344</v>
       </c>
@@ -2305,7 +2342,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>9733218435</v>
       </c>
@@ -2327,7 +2364,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>9289794263</v>
       </c>
@@ -2349,7 +2386,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>9115055031</v>
       </c>
@@ -2371,7 +2408,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>9101743170</v>
       </c>
@@ -2393,7 +2430,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>9205065914</v>
       </c>
@@ -2415,7 +2452,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>7002906112</v>
       </c>
@@ -2437,7 +2474,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>8148734862</v>
       </c>
@@ -2459,7 +2496,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>7860221629</v>
       </c>
@@ -2481,7 +2518,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>8453143767</v>
       </c>
@@ -2503,7 +2540,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>6290184958</v>
       </c>
@@ -2525,7 +2562,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>7479214019</v>
       </c>
@@ -2547,7 +2584,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>9310802038</v>
       </c>
@@ -2569,7 +2606,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>9829027135</v>
       </c>
@@ -2591,7 +2628,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>9829027066</v>
       </c>
@@ -2613,7 +2650,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>9773377533</v>
       </c>
@@ -2635,7 +2672,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>9773377535</v>
       </c>
@@ -2657,7 +2694,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>9829027066</v>
       </c>
@@ -2679,7 +2716,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>9773377526</v>
       </c>
@@ -2701,7 +2738,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>8274900776</v>
       </c>
@@ -2723,7 +2760,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>9124218537</v>
       </c>
@@ -2745,7 +2782,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>6371677918</v>
       </c>
@@ -2767,7 +2804,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>7976172498</v>
       </c>
@@ -2789,7 +2826,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>8504052366</v>
       </c>
@@ -2811,7 +2848,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>7439037800</v>
       </c>
@@ -2833,7 +2870,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>6289979737</v>
       </c>
@@ -2855,7 +2892,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>6296731720</v>
       </c>
@@ -2877,7 +2914,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>7601813395</v>
       </c>
@@ -2899,7 +2936,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>8743933728</v>
       </c>
@@ -2921,7 +2958,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>7890830792</v>
       </c>
@@ -2943,7 +2980,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>9554694548</v>
       </c>
@@ -2965,7 +3002,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>7834876963</v>
       </c>
@@ -2987,7 +3024,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>6289679529</v>
       </c>
@@ -3009,7 +3046,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>7054859864</v>
       </c>
@@ -3031,7 +3068,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>9330443673</v>
       </c>
@@ -3053,7 +3090,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>7679799823</v>
       </c>
@@ -3075,7 +3112,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>9827680569</v>
       </c>
@@ -3097,7 +3134,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>8618384456</v>
       </c>
@@ -3119,7 +3156,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>9104295258</v>
       </c>
@@ -3141,7 +3178,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>9489138180</v>
       </c>
@@ -3163,7 +3200,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>9587721766</v>
       </c>
@@ -3185,7 +3222,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>9038817807</v>
       </c>
@@ -3207,7 +3244,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>8945998903</v>
       </c>
@@ -3229,7 +3266,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>9038817781</v>
       </c>
@@ -3251,7 +3288,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>9038817787</v>
       </c>
@@ -3273,7 +3310,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>7618517187</v>
       </c>
@@ -3295,7 +3332,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>9480966158</v>
       </c>
@@ -3317,7 +3354,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>8319761245</v>
       </c>
@@ -3339,7 +3376,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>9696778042</v>
       </c>
@@ -3361,7 +3398,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>7008764084</v>
       </c>
@@ -3383,7 +3420,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>9178610562</v>
       </c>
@@ -3405,7 +3442,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>8471853890</v>
       </c>
@@ -3427,7 +3464,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>6383415126</v>
       </c>
@@ -3449,7 +3486,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>7382370214</v>
       </c>
@@ -3471,7 +3508,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>9233946310</v>
       </c>
@@ -3493,7 +3530,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>9441861085</v>
       </c>
@@ -3515,7 +3552,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>9748302869</v>
       </c>
@@ -3537,7 +3574,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>8500533791</v>
       </c>
@@ -3559,7 +3596,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>9573257065</v>
       </c>
@@ -3581,7 +3618,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>9492336159</v>
       </c>
@@ -3603,7 +3640,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>7456873261</v>
       </c>
@@ -3625,7 +3662,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>7566503247</v>
       </c>
@@ -3647,7 +3684,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>7042823877</v>
       </c>
@@ -3669,7 +3706,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>8302989655</v>
       </c>
@@ -3691,7 +3728,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>8603015728</v>
       </c>
@@ -3713,7 +3750,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>8447038788</v>
       </c>
@@ -3735,7 +3772,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>9891538779</v>
       </c>
@@ -3757,7 +3794,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>9891756612</v>
       </c>
@@ -3779,7 +3816,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>9540756139</v>
       </c>
@@ -3801,7 +3838,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>8929867351</v>
       </c>
@@ -3823,7 +3860,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>9395023342</v>
       </c>
@@ -3845,7 +3882,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>6355211934</v>
       </c>
@@ -3867,7 +3904,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>6009678184</v>
       </c>
@@ -3889,7 +3926,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>6009208473</v>
       </c>
@@ -3911,7 +3948,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>7029035163</v>
       </c>
@@ -3933,7 +3970,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>6264540678</v>
       </c>
@@ -3955,7 +3992,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>7020950387</v>
       </c>
@@ -3977,7 +4014,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>8122760183</v>
       </c>
@@ -3999,7 +4036,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>9151603831</v>
       </c>
@@ -4021,7 +4058,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>9483913073</v>
       </c>
@@ -4043,7 +4080,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>7206203113</v>
       </c>
@@ -4065,7 +4102,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>7305535430</v>
       </c>
@@ -4087,7 +4124,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>7418919644</v>
       </c>
@@ -4109,7 +4146,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>9343810945</v>
       </c>
@@ -4131,7 +4168,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>9583601843</v>
       </c>
@@ -4153,7 +4190,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>8859220958</v>
       </c>
@@ -4175,7 +4212,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>7417255883</v>
       </c>
@@ -4197,7 +4234,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>7908372850</v>
       </c>
@@ -4219,7 +4256,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>9827081092</v>
       </c>
@@ -4241,7 +4278,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>8240065015</v>
       </c>
@@ -4263,7 +4300,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>9861662489</v>
       </c>
@@ -4285,7 +4322,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>7735240693</v>
       </c>
@@ -4307,7 +4344,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>6370498406</v>
       </c>
@@ -4329,7 +4366,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>8293399205</v>
       </c>
@@ -4351,7 +4388,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>8168668911</v>
       </c>
@@ -4373,7 +4410,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>7407270204</v>
       </c>
@@ -4395,7 +4432,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>7972315740</v>
       </c>
@@ -4417,7 +4454,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>9038535965</v>
       </c>
@@ -4439,7 +4476,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>9038527637</v>
       </c>
@@ -4461,7 +4498,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>7715557277</v>
       </c>
@@ -4483,7 +4520,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>9022572591</v>
       </c>
@@ -4505,7 +4542,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>7679397896</v>
       </c>
@@ -4527,7 +4564,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>6290846588</v>
       </c>
@@ -4549,7 +4586,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>6386274791</v>
       </c>
@@ -4571,7 +4608,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>7980468378</v>
       </c>
@@ -4593,7 +4630,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>9390758608</v>
       </c>
@@ -4615,7 +4652,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>8815537574</v>
       </c>
@@ -4637,7 +4674,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>7828086551</v>
       </c>
@@ -4659,7 +4696,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>9263335755</v>
       </c>
@@ -4681,7 +4718,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>9775903157</v>
       </c>
@@ -4703,7 +4740,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>6000753948</v>
       </c>
@@ -4725,7 +4762,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>8004929465</v>
       </c>
@@ -4747,7 +4784,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>7404225279</v>
       </c>
@@ -4769,7 +4806,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>8910115422</v>
       </c>
@@ -4791,7 +4828,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>7085930731</v>
       </c>
@@ -4813,7 +4850,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>8927757302</v>
       </c>
@@ -4835,7 +4872,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>8809766332</v>
       </c>
@@ -4857,7 +4894,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>9672312521</v>
       </c>
@@ -4879,7 +4916,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>9416702954</v>
       </c>
@@ -4901,7 +4938,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>6002753104</v>
       </c>
@@ -4923,7 +4960,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>9831385275</v>
       </c>
@@ -4945,7 +4982,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>9845289948</v>
       </c>
@@ -4967,7 +5004,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>6371318967</v>
       </c>
@@ -4989,7 +5026,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>9770562073</v>
       </c>
@@ -5011,7 +5048,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>8807908877</v>
       </c>
@@ -5033,7 +5070,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>9991195931</v>
       </c>
@@ -5055,7 +5092,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>8807617232</v>
       </c>
@@ -5077,7 +5114,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>7290994598</v>
       </c>
@@ -5099,7 +5136,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>9476825510</v>
       </c>
@@ -5121,7 +5158,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>9911907186</v>
       </c>
@@ -5143,7 +5180,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>8082037233</v>
       </c>
@@ -5165,7 +5202,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>9384328610</v>
       </c>
@@ -5187,7 +5224,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>7708476026</v>
       </c>
@@ -5209,7 +5246,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>9752936137</v>
       </c>
@@ -5231,7 +5268,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>9310841073</v>
       </c>
@@ -5253,7 +5290,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>8972598904</v>
       </c>
@@ -5275,7 +5312,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>9711742739</v>
       </c>
@@ -5297,7 +5334,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>9425938167</v>
       </c>
@@ -5319,7 +5356,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>6002693760</v>
       </c>
@@ -5341,7 +5378,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>9279489109</v>
       </c>
@@ -5363,7 +5400,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>8881513867</v>
       </c>
@@ -5385,7 +5422,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>8489961543</v>
       </c>
@@ -5407,7 +5444,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>9003556921</v>
       </c>
@@ -5429,7 +5466,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>8098810253</v>
       </c>
@@ -5451,7 +5488,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>9477509276</v>
       </c>
@@ -5473,7 +5510,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>7408811425</v>
       </c>
@@ -5495,7 +5532,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>9772453761</v>
       </c>
@@ -5517,7 +5554,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>9798608420</v>
       </c>
@@ -5539,7 +5576,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>9585207107</v>
       </c>
@@ -5561,7 +5598,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>7845680870</v>
       </c>
@@ -5583,7 +5620,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>7448346089</v>
       </c>
@@ -5605,7 +5642,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>6267113225</v>
       </c>
@@ -5627,7 +5664,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>9040875645</v>
       </c>
@@ -5649,7 +5686,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>9366850640</v>
       </c>
@@ -5671,7 +5708,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>6009723794</v>
       </c>
@@ -5693,7 +5730,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>9487438084</v>
       </c>
@@ -5715,7 +5752,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>7598158453</v>
       </c>
@@ -5737,7 +5774,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>8076550480</v>
       </c>
@@ -5759,7 +5796,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>7002287930</v>
       </c>
@@ -5781,7 +5818,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>6377922491</v>
       </c>
@@ -5803,7 +5840,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>6367124274</v>
       </c>
@@ -5825,7 +5862,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>8075986300</v>
       </c>
@@ -5847,7 +5884,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>8302022897</v>
       </c>
@@ -5869,7 +5906,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>7662080470</v>
       </c>
@@ -5891,7 +5928,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>7052538869</v>
       </c>
@@ -5913,7 +5950,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>8469256546</v>
       </c>
@@ -5935,7 +5972,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>9520624849</v>
       </c>
@@ -5957,7 +5994,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>9216577270</v>
       </c>
@@ -5979,7 +6016,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>8929631368</v>
       </c>
@@ -6001,7 +6038,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>8297861868</v>
       </c>
@@ -6023,7 +6060,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>9739390648</v>
       </c>
@@ -6045,7 +6082,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>7577814573</v>
       </c>
@@ -6067,7 +6104,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>7003459587</v>
       </c>
@@ -6089,7 +6126,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>8017679121</v>
       </c>
@@ -6111,7 +6148,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>6297663474</v>
       </c>
@@ -6133,7 +6170,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>9339060352</v>
       </c>
@@ -6155,7 +6192,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>9628055373</v>
       </c>
@@ -6177,7 +6214,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>8303342783</v>
       </c>
@@ -6199,7 +6236,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>8004823731</v>
       </c>
@@ -6221,7 +6258,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>9835108200</v>
       </c>
@@ -6243,7 +6280,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>7094495680</v>
       </c>
@@ -6265,7 +6302,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>7200040936</v>
       </c>
@@ -6287,7 +6324,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>8807969983</v>
       </c>
@@ -6309,7 +6346,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>8088939636</v>
       </c>
@@ -6331,7 +6368,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>7634949039</v>
       </c>
@@ -6353,7 +6390,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>7760405844</v>
       </c>
@@ -6375,7 +6412,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>8961288492</v>
       </c>
@@ -6397,7 +6434,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>9083784711</v>
       </c>
@@ -6419,7 +6456,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>9059896448</v>
       </c>
@@ -6441,7 +6478,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>7872630523</v>
       </c>
@@ -6463,7 +6500,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>9667189419</v>
       </c>
@@ -6485,7 +6522,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>8448023681</v>
       </c>
@@ -6507,7 +6544,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>8595224076</v>
       </c>
@@ -6529,7 +6566,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>8961844310</v>
       </c>
@@ -6551,7 +6588,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>9341171845</v>
       </c>
@@ -6573,7 +6610,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>9726358775</v>
       </c>
@@ -6595,7 +6632,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>9059896448</v>
       </c>
@@ -6617,7 +6654,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>7869147901</v>
       </c>
@@ -6639,7 +6676,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>7389119330</v>
       </c>
@@ -6661,7 +6698,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>8810212297</v>
       </c>
@@ -6683,7 +6720,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>9627332878</v>
       </c>
@@ -6705,7 +6742,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>8218884022</v>
       </c>
@@ -6727,7 +6764,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>9053251786</v>
       </c>
@@ -6749,7 +6786,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>9729004683</v>
       </c>
@@ -6771,7 +6808,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>6396541750</v>
       </c>
@@ -6793,7 +6830,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>7908693410</v>
       </c>
@@ -6815,7 +6852,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>9382138883</v>
       </c>
@@ -6837,7 +6874,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>8827540580</v>
       </c>
@@ -6859,7 +6896,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>9030399942</v>
       </c>
@@ -6881,7 +6918,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>9379274054</v>
       </c>
@@ -6903,7 +6940,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>9671659554</v>
       </c>
@@ -6925,7 +6962,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>9064798266</v>
       </c>
@@ -6947,7 +6984,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>8077903433</v>
       </c>
@@ -6969,7 +7006,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>9842689393</v>
       </c>
@@ -6991,7 +7028,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>6363485197</v>
       </c>
@@ -7013,7 +7050,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>9530326588</v>
       </c>
@@ -7035,7 +7072,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>7702107663</v>
       </c>
@@ -7057,7 +7094,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>8148026694</v>
       </c>
@@ -7079,7 +7116,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>9962879459</v>
       </c>
@@ -7101,7 +7138,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>7330728607</v>
       </c>
@@ -7123,7 +7160,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>9756432253</v>
       </c>
@@ -7145,7 +7182,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>9520637160</v>
       </c>
@@ -7167,7 +7204,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>9040762795</v>
       </c>
@@ -7189,7 +7226,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>8117915230</v>
       </c>
@@ -7211,7 +7248,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>8318266858</v>
       </c>
@@ -7233,7 +7270,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>8871195293</v>
       </c>
@@ -7255,7 +7292,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>8089733149</v>
       </c>
@@ -7277,7 +7314,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>8860373137</v>
       </c>
@@ -7299,7 +7336,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>8130773136</v>
       </c>
@@ -7321,7 +7358,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>9773510459</v>
       </c>
@@ -7343,7 +7380,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>8777851493</v>
       </c>
@@ -7365,7 +7402,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>6205799052</v>
       </c>
@@ -7387,7 +7424,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>9632466899</v>
       </c>
@@ -7409,7 +7446,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>9911611739</v>
       </c>
@@ -7431,7 +7468,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>8602571358</v>
       </c>
@@ -7453,7 +7490,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>7307360921</v>
       </c>
@@ -7475,7 +7512,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>9911721988</v>
       </c>
@@ -7497,7 +7534,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>9911721889</v>
       </c>
@@ -7519,7 +7556,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>9818682457</v>
       </c>
@@ -7541,7 +7578,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>7973761397</v>
       </c>
@@ -7563,7 +7600,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>9053802358</v>
       </c>
@@ -7585,7 +7622,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>9034820051</v>
       </c>
@@ -7607,7 +7644,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>8459957304</v>
       </c>
@@ -7629,7 +7666,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>6289297012</v>
       </c>
@@ -7651,7 +7688,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>6372864118</v>
       </c>
@@ -7673,7 +7710,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>6360447211</v>
       </c>
@@ -7695,7 +7732,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>9109294469</v>
       </c>
@@ -7717,7 +7754,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>7735463044</v>
       </c>
@@ -7739,7 +7776,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>9861498465</v>
       </c>
@@ -7761,7 +7798,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>9701187381</v>
       </c>
@@ -7783,7 +7820,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>9951750571</v>
       </c>
@@ -7805,7 +7842,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>9038508653</v>
       </c>
@@ -7827,7 +7864,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>8602571358</v>
       </c>
@@ -7849,7 +7886,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>9327473823</v>
       </c>
@@ -7871,7 +7908,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>7636089090</v>
       </c>
@@ -7893,7 +7930,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>7002381123</v>
       </c>
@@ -7915,7 +7952,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>9006543852</v>
       </c>
@@ -7937,7 +7974,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>9205061645</v>
       </c>
@@ -7959,7 +7996,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>7042137038</v>
       </c>
@@ -7981,7 +8018,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>8079714706</v>
       </c>
@@ -8003,7 +8040,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>8900532611</v>
       </c>
@@ -8025,7 +8062,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>9428507572</v>
       </c>
@@ -8047,7 +8084,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>9025898735</v>
       </c>
@@ -8069,7 +8106,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>7005899100</v>
       </c>
@@ -8091,7 +8128,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>8602828156</v>
       </c>
@@ -8113,7 +8150,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>8249845614</v>
       </c>
@@ -8135,7 +8172,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>9090678901</v>
       </c>
